--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col9a2-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col9a2-Mag.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06222133333333334</v>
+        <v>0.010789</v>
       </c>
       <c r="H2">
-        <v>0.186664</v>
+        <v>0.032367</v>
       </c>
       <c r="I2">
-        <v>0.06580370919656402</v>
+        <v>0.01148982983039127</v>
       </c>
       <c r="J2">
-        <v>0.06580370919656402</v>
+        <v>0.01148982983039127</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1614186666666667</v>
+        <v>0.003643333333333333</v>
       </c>
       <c r="N2">
-        <v>0.484256</v>
+        <v>0.01093</v>
       </c>
       <c r="O2">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="P2">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="Q2">
-        <v>0.01004368466488889</v>
+        <v>3.930792333333334E-05</v>
       </c>
       <c r="R2">
-        <v>0.09039316198400002</v>
+        <v>0.00035377131</v>
       </c>
       <c r="S2">
-        <v>0.01950924866468874</v>
+        <v>2.501376632227346E-05</v>
       </c>
       <c r="T2">
-        <v>0.01950924866468874</v>
+        <v>2.501376632227346E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06222133333333334</v>
+        <v>0.010789</v>
       </c>
       <c r="H3">
-        <v>0.186664</v>
+        <v>0.032367</v>
       </c>
       <c r="I3">
-        <v>0.06580370919656402</v>
+        <v>0.01148982983039127</v>
       </c>
       <c r="J3">
-        <v>0.06580370919656402</v>
+        <v>0.01148982983039127</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3830383333333333</v>
+        <v>1.669886333333333</v>
       </c>
       <c r="N3">
-        <v>1.149115</v>
+        <v>5.009659</v>
       </c>
       <c r="O3">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="P3">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="Q3">
-        <v>0.02383315581777778</v>
+        <v>0.01801640365033333</v>
       </c>
       <c r="R3">
-        <v>0.21449840236</v>
+        <v>0.162147632853</v>
       </c>
       <c r="S3">
-        <v>0.04629446053187528</v>
+        <v>0.01146481606406899</v>
       </c>
       <c r="T3">
-        <v>0.04629446053187528</v>
+        <v>0.011464816064069</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>2.459645</v>
       </c>
       <c r="I4">
-        <v>0.8670861243023972</v>
+        <v>0.8731393855832401</v>
       </c>
       <c r="J4">
-        <v>0.8670861243023973</v>
+        <v>0.8731393855832402</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1614186666666667</v>
+        <v>0.003643333333333333</v>
       </c>
       <c r="N4">
-        <v>0.484256</v>
+        <v>0.01093</v>
       </c>
       <c r="O4">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="P4">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="Q4">
-        <v>0.1323442054577778</v>
+        <v>0.002987102205555556</v>
       </c>
       <c r="R4">
-        <v>1.19109784912</v>
+        <v>0.02688391985</v>
       </c>
       <c r="S4">
-        <v>0.2570705970720563</v>
+        <v>0.001900855354705357</v>
       </c>
       <c r="T4">
-        <v>0.2570705970720564</v>
+        <v>0.001900855354705357</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>2.459645</v>
       </c>
       <c r="I5">
-        <v>0.8670861243023972</v>
+        <v>0.8731393855832401</v>
       </c>
       <c r="J5">
-        <v>0.8670861243023973</v>
+        <v>0.8731393855832402</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3830383333333333</v>
+        <v>1.669886333333333</v>
       </c>
       <c r="N5">
-        <v>1.149115</v>
+        <v>5.009659</v>
       </c>
       <c r="O5">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="P5">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="Q5">
-        <v>0.3140461071305556</v>
+        <v>1.369109190117222</v>
       </c>
       <c r="R5">
-        <v>2.826414964175</v>
+        <v>12.321982711055</v>
       </c>
       <c r="S5">
-        <v>0.6100155272303409</v>
+        <v>0.8712385302285347</v>
       </c>
       <c r="T5">
-        <v>0.6100155272303409</v>
+        <v>0.8712385302285348</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.06345666666666668</v>
+        <v>0.1083336666666667</v>
       </c>
       <c r="H6">
-        <v>0.19037</v>
+        <v>0.325001</v>
       </c>
       <c r="I6">
-        <v>0.06711016650103871</v>
+        <v>0.1153707845863686</v>
       </c>
       <c r="J6">
-        <v>0.06711016650103871</v>
+        <v>0.1153707845863686</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,28 +800,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1614186666666667</v>
+        <v>0.003643333333333333</v>
       </c>
       <c r="N6">
-        <v>0.484256</v>
+        <v>0.01093</v>
       </c>
       <c r="O6">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="P6">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="Q6">
-        <v>0.01024309052444445</v>
+        <v>0.0003946956588888889</v>
       </c>
       <c r="R6">
-        <v>0.09218781472000001</v>
+        <v>0.00355226093</v>
       </c>
       <c r="S6">
-        <v>0.01989658245991083</v>
+        <v>0.0002511662825873635</v>
       </c>
       <c r="T6">
-        <v>0.01989658245991083</v>
+        <v>0.0002511662825873635</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.06345666666666668</v>
+        <v>0.1083336666666667</v>
       </c>
       <c r="H7">
-        <v>0.19037</v>
+        <v>0.325001</v>
       </c>
       <c r="I7">
-        <v>0.06711016650103871</v>
+        <v>0.1153707845863686</v>
       </c>
       <c r="J7">
-        <v>0.06711016650103871</v>
+        <v>0.1153707845863686</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3830383333333333</v>
+        <v>1.669886333333333</v>
       </c>
       <c r="N7">
-        <v>1.149115</v>
+        <v>5.009659</v>
       </c>
       <c r="O7">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="P7">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="Q7">
-        <v>0.02430633583888889</v>
+        <v>0.1809049094065555</v>
       </c>
       <c r="R7">
-        <v>0.21875702255</v>
+        <v>1.628144184659</v>
       </c>
       <c r="S7">
-        <v>0.04721358404112789</v>
+        <v>0.1151196183037812</v>
       </c>
       <c r="T7">
-        <v>0.04721358404112789</v>
+        <v>0.1151196183037812</v>
       </c>
     </row>
   </sheetData>
